--- a/sourcedata/moura120years2015updated2024.xlsx
+++ b/sourcedata/moura120years2015updated2024.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\nbproblem\sourcedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C2C68F-82F7-4D06-AC8F-103DCA4611DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D958BA-CCEB-42E5-AFE2-B02B7D531630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D3220C-74BC-4731-B67E-C8F1AAE6E2ED}"/>
+    <workbookView xWindow="-57720" yWindow="5970" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D3220C-74BC-4731-B67E-C8F1AAE6E2ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Completed" sheetId="1" r:id="rId1"/>
+    <sheet name="Completed" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,12 +84,19 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,13 +128,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -135,22 +143,23 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B6198936-80DC-4DD0-8B1E-E36B30219D67}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,25 +490,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77729F0-90C7-4346-B0B7-95318B337521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DDCE2B-B525-4A9A-87E1-5AD70F3E8691}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.3515625" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.8203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="3"/>
+    <col min="6" max="6" width="29.17578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.3515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1889</v>
       </c>
@@ -537,7 +546,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1890</v>
       </c>
@@ -555,7 +564,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1891</v>
       </c>
@@ -573,7 +582,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>1892</v>
       </c>
@@ -591,7 +600,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>1893</v>
       </c>
@@ -609,7 +618,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1894</v>
       </c>
@@ -627,7 +636,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>1895</v>
       </c>
@@ -645,7 +654,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>1896</v>
       </c>
@@ -663,7 +672,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>1897</v>
       </c>
@@ -681,7 +690,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>1898</v>
       </c>
@@ -699,7 +708,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>1899</v>
       </c>
@@ -717,7 +726,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>1900</v>
       </c>
@@ -737,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>1901</v>
       </c>
@@ -755,7 +764,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>1902</v>
       </c>
@@ -773,7 +782,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>1903</v>
       </c>
@@ -791,7 +800,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>1904</v>
       </c>
@@ -809,7 +818,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>1905</v>
       </c>
@@ -827,7 +836,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>1906</v>
       </c>
@@ -845,7 +854,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>1907</v>
       </c>
@@ -863,7 +872,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>1908</v>
       </c>
@@ -881,7 +890,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>1909</v>
       </c>
@@ -899,7 +908,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>1910</v>
       </c>
@@ -919,7 +928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>1911</v>
       </c>
@@ -937,7 +946,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>1912</v>
       </c>
@@ -955,7 +964,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>1913</v>
       </c>
@@ -973,7 +982,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>1914</v>
       </c>
@@ -991,7 +1000,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>1915</v>
       </c>
@@ -1009,7 +1018,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>1916</v>
       </c>
@@ -1027,7 +1036,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>1917</v>
       </c>
@@ -1045,7 +1054,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>1918</v>
       </c>
@@ -1063,7 +1072,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>1919</v>
       </c>
@@ -1081,7 +1090,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>1920</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>1921</v>
       </c>
@@ -1119,7 +1128,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>1922</v>
       </c>
@@ -1137,7 +1146,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>1923</v>
       </c>
@@ -1155,7 +1164,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>1924</v>
       </c>
@@ -1173,7 +1182,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>1925</v>
       </c>
@@ -1191,7 +1200,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>1926</v>
       </c>
@@ -1209,7 +1218,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>1927</v>
       </c>
@@ -1227,7 +1236,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>1928</v>
       </c>
@@ -1245,7 +1254,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>1929</v>
       </c>
@@ -1263,7 +1272,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>1930</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>1931</v>
       </c>
@@ -1301,7 +1310,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>1932</v>
       </c>
@@ -1319,7 +1328,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>1933</v>
       </c>
@@ -1337,7 +1346,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>1934</v>
       </c>
@@ -1355,7 +1364,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>1935</v>
       </c>
@@ -1373,7 +1382,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>1936</v>
       </c>
@@ -1391,7 +1400,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>1937</v>
       </c>
@@ -1409,7 +1418,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>1938</v>
       </c>
@@ -1427,7 +1436,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>1939</v>
       </c>
@@ -1445,7 +1454,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>1940</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>1941</v>
       </c>
@@ -1483,7 +1492,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>1942</v>
       </c>
@@ -1501,7 +1510,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>1943</v>
       </c>
@@ -1519,7 +1528,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>1944</v>
       </c>
@@ -1537,7 +1546,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>1945</v>
       </c>
@@ -1555,7 +1564,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>1946</v>
       </c>
@@ -1573,7 +1582,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>1947</v>
       </c>
@@ -1591,7 +1600,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>1948</v>
       </c>
@@ -1609,7 +1618,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>1949</v>
       </c>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>1950</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>1951</v>
       </c>
@@ -1664,7 +1673,7 @@
         <v>47216537</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>1952</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>48449675</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>1953</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>49682814</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>1954</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>50915952</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>1955</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>52149091</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>1956</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>53382230</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>1957</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>54615368</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>1958</v>
       </c>
@@ -1783,7 +1792,7 @@
         <v>55848507</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>1959</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>57081645</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>1960</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>1961</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>59253214</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>1962</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>60191644</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>1963</v>
       </c>
@@ -1871,7 +1880,7 @@
         <v>61130074</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>1964</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>62068504</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>1965</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>63006934</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>1966</v>
       </c>
@@ -1922,7 +1931,7 @@
         <v>63945364</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>1967</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>64883794</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>1968</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>65822224</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>1969</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>66760654</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>1970</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>1971</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>70455723</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>1972</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>73212361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>1973</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>1974</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>1975</v>
       </c>
@@ -2087,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>1976</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>1977</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>1978</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>1979</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>1980</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>88966500</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>1981</v>
       </c>
@@ -2204,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>1982</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>92539500</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>1983</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>1984</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>96725500</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>1985</v>
       </c>
@@ -2278,7 +2287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>1986</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>101292500</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>1987</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>1988</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>104157000</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>1989</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>1990</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>105126000</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>1991</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>1992</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>105600500</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>1993</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>1994</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>108033000</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>1995</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>1996</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>110906500</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>1997</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>1998</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>113800000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>1999</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>2000</v>
       </c>
@@ -2554,7 +2563,7 @@
         <v>117179500</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>2001</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>2002</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>119946500</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>2003</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>2004</v>
       </c>
@@ -2628,7 +2637,7 @@
         <v>122577500</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>2005</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>2006</v>
       </c>
@@ -2665,7 +2674,7 @@
         <v>126291500</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>2007</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>2008</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>129158000</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>2009</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>2010</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>2011</v>
       </c>
@@ -2753,7 +2762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>2012</v>
       </c>
@@ -2764,7 +2773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>2013</v>
       </c>
@@ -2775,7 +2784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>2014</v>
       </c>
@@ -2786,7 +2795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>2015</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>2016</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>2017</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>2018</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>2019</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>2020</v>
       </c>
@@ -2852,7 +2861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>2021</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>2022</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>2023</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>2024</v>
       </c>
